--- a/Data/collapsed database manual cases/aguascalientes_collapsed_edited.xlsx
+++ b/Data/collapsed database manual cases/aguascalientes_collapsed_edited.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7da8e9ec94b4821/Documents/ITAM/RA - Horacio/Monitoring Brokers/Data/States/aguascalientes/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpzorrilla/Documents/GitHub/The-Mexican-municipal-elections-electoral-precinct-level-database/Data/collapsed database manual cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F0D113B-D857-B642-B450-8E0DB707C81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98420729-0D24-E64F-A465-462BDAE69BCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4480" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="190">
   <si>
     <t>uniqueid</t>
   </si>
@@ -581,6 +581,18 @@
   </si>
   <si>
     <t>https://es.wikipedia.org/wiki/Municipio_de_El_Llano</t>
+  </si>
+  <si>
+    <t>PT_MORENA_PANAL</t>
+  </si>
+  <si>
+    <t>https://app.sabervotar.mx/candidato/cezar-pedroza-ortega/diputados-locales-plurinominales/aguascalientes</t>
+  </si>
+  <si>
+    <t>COAL</t>
+  </si>
+  <si>
+    <t>María Teresa Jiménez Esquivel</t>
   </si>
 </sst>
 </file>
@@ -952,10 +964,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:S56"/>
+  <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="P61" sqref="P61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3679,6 +3691,47 @@
         <v>36</v>
       </c>
     </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>1010</v>
+      </c>
+      <c r="B57">
+        <v>2024</v>
+      </c>
+      <c r="C57" t="s">
+        <v>19</v>
+      </c>
+      <c r="D57" t="s">
+        <v>150</v>
+      </c>
+      <c r="E57" t="s">
+        <v>186</v>
+      </c>
+      <c r="F57" t="s">
+        <v>158</v>
+      </c>
+      <c r="H57" t="s">
+        <v>122</v>
+      </c>
+      <c r="I57" t="s">
+        <v>187</v>
+      </c>
+      <c r="J57" t="s">
+        <v>188</v>
+      </c>
+      <c r="K57" t="s">
+        <v>158</v>
+      </c>
+      <c r="O57">
+        <v>2022</v>
+      </c>
+      <c r="P57" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>189</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:S56" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="6">
